--- a/BRFSS-Survey-2021-Analysis/Metadata.xlsx
+++ b/BRFSS-Survey-2021-Analysis/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fawzy\Projects\BRFSS-Survey-2021-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880093CF-B0D9-41C9-B3B1-9551B5D0A6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD82818-CA29-4225-A184-D1FC9BAAC786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,9 +363,6 @@
     <t>Arthritis</t>
   </si>
   <si>
-    <t>Kidney</t>
-  </si>
-  <si>
     <t>Depression</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>Adults who have ever been told they have asthma</t>
+  </si>
+  <si>
+    <t>Kidney_Disease</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD35"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>94</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>96</v>
@@ -917,7 +917,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
@@ -1057,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1152,7 +1152,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>111</v>
@@ -1169,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>19</v>
@@ -1183,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
